--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841738.151192442</v>
+        <v>2839444.555735849</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8784951.01809223</v>
+        <v>8784951.018092228</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>324.798681262274</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>106.3717539868212</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666591</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>126.5388824951707</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278421</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>49.44365907242276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395859</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>277.8947113923951</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.56412890121557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>72.8097849205479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.0869401039757</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>66.25628701154713</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>125.2851635392055</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
-        <v>214.85520491952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>125.2851635392055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.062936918766</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1176.100419978354</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1176.100419978354</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>790.3121673801097</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>379.3262625905022</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4361,19 +4361,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918766</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.062936918766</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4389,34 +4389,34 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
         <v>1867.770244284151</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1653.230863484597</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>1653.230863484597</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1653.230863484597</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1505.317769902204</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1358.427822404294</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1190.441357712572</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915737</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2170.637584419575</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>2170.637584419575</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1881.220414382614</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>1653.230863484597</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>1653.230863484597</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308157</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367745</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760995</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.384423162751</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>651.3985183731431</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>236.3260682181396</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348091</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.000731372279</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>402.9356658273856</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1914.135768168901</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1914.135768168901</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>584.5841306576253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.807527238423</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1221.845010298012</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278357</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1763.805055578919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1509.120567373032</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.703397336071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>991.7138464380538</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5607,13 +5607,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,13 +5835,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1731.250242493492</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
         <v>322.7933138979686</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
         <v>388.6197041282753</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5911984019043</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056857</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>8.289762996849049</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>73.62417772602127</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00954930701842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>15.0095493070184</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>40.23897475306337</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884403</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755759.7641884405</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121055</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312027</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768901</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768901</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,13 +26442,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768912</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668260.5062849524</v>
+        <v>-668260.5062849523</v>
       </c>
       <c r="C6" t="n">
-        <v>276852.5988714143</v>
+        <v>276852.5988714148</v>
       </c>
       <c r="D6" t="n">
-        <v>480291.3404835202</v>
+        <v>480291.3404835199</v>
       </c>
       <c r="E6" t="n">
-        <v>229413.8087912237</v>
+        <v>229379.0708657881</v>
       </c>
       <c r="F6" t="n">
-        <v>554826.2705985786</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="G6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731431</v>
       </c>
       <c r="H6" t="n">
-        <v>554826.2705985792</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="I6" t="n">
-        <v>554826.270598579</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="J6" t="n">
-        <v>387221.0927885963</v>
+        <v>387186.3548631608</v>
       </c>
       <c r="K6" t="n">
-        <v>505716.1778925245</v>
+        <v>505681.4399670888</v>
       </c>
       <c r="L6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="M6" t="n">
-        <v>469771.242663067</v>
+        <v>469736.5047376312</v>
       </c>
       <c r="N6" t="n">
-        <v>554826.2705985791</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="O6" t="n">
-        <v>554826.2705985791</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="P6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731433</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>86.74902151068</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>40.8797551683076</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068146</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.0688818921498</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624401</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.5217571557729</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>305.2393825482602</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700509</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32008,7 +32008,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
         <v>926.5868626460027</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>287.9685048518523</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>581.2949959490413</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33983,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>663.4727207607269</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>553.5225306839449</v>
-      </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>442.7406161691672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>520.8764763162825</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
